--- a/NovaEra-CooperativadeHabitacaoEconmica.xlsx
+++ b/NovaEra-CooperativadeHabitacaoEconmica.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="672" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="672"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="ENTITY" sheetId="1" r:id="rId1"/>
     <sheet name="ROC-SROC" sheetId="2" r:id="rId2"/>
-    <sheet name="YEARINCOMESTATEMENT" sheetId="3" r:id="rId3"/>
-    <sheet name="YEARAPPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
+    <sheet name="FINANCIALSTATEMENT" sheetId="3" r:id="rId3"/>
+    <sheet name="APPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="BOARD" sheetId="5" r:id="rId5"/>
     <sheet name="PARTICIPATION" sheetId="6" r:id="rId6"/>
     <sheet name="MEMBER" sheetId="7" r:id="rId7"/>
-    <sheet name="DEDUCTIONFOROTHER" sheetId="8" r:id="rId8"/>
+    <sheet name="ALLOCATIONOFRESERVES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,35 +31,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="127">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>OrganisationName</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Morada - Cooperativa de habitação económica </t>
   </si>
   <si>
-    <t>OrganisationURL</t>
-  </si>
-  <si>
     <t>http://www.nova-morada.com</t>
   </si>
   <si>
-    <t>typeOfOrganisation</t>
-  </si>
-  <si>
     <t>Cooperativa</t>
   </si>
   <si>
     <t>branch</t>
   </si>
   <si>
-    <t>Habitação</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -75,51 +63,21 @@
     <t>resultsSurpluses</t>
   </si>
   <si>
-    <t>profitsThirdPartyResults</t>
-  </si>
-  <si>
-    <t>profitsExtraordinaryResults</t>
-  </si>
-  <si>
     <t>yearNetProfit</t>
   </si>
   <si>
-    <t>deductionForLegalReserve</t>
-  </si>
-  <si>
-    <t>deductionForEducationAndTrainingReserve</t>
-  </si>
-  <si>
     <t>retainedEarnings</t>
   </si>
   <si>
     <t>interestPayment</t>
   </si>
   <si>
-    <t>allocationToVoluntaryReserves</t>
-  </si>
-  <si>
-    <t>totalOrganisationRefunds</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>lossTreatmentLiabilities</t>
-  </si>
-  <si>
-    <t>lossTreatmentLossesGeneratedByMembers</t>
-  </si>
-  <si>
     <t>allocatioOfProfitsIndivisiblesReserves</t>
   </si>
   <si>
-    <t>deliversRefunds</t>
-  </si>
-  <si>
-    <t>appliesOtherDeduction</t>
-  </si>
-  <si>
     <t>DED1</t>
   </si>
   <si>
@@ -339,9 +297,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>percentageTotalOrganisationRefunds</t>
-  </si>
-  <si>
     <t>participatesInBoard</t>
   </si>
   <si>
@@ -418,6 +373,45 @@
   </si>
   <si>
     <t>DED2</t>
+  </si>
+  <si>
+    <t>profitsNonMemberyResults</t>
+  </si>
+  <si>
+    <t>profitsExtraEntityResults</t>
+  </si>
+  <si>
+    <t>Habitação e construção</t>
+  </si>
+  <si>
+    <t>allocationForLegalReserve</t>
+  </si>
+  <si>
+    <t>allocationForEducationAndTrainingReserve</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesDebts</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesLosses</t>
+  </si>
+  <si>
+    <t>distributionOfReturns</t>
+  </si>
+  <si>
+    <t>otherDeduction</t>
+  </si>
+  <si>
+    <t>typeOfEntity</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>entityURL</t>
+  </si>
+  <si>
+    <t>amountOfRefunds</t>
   </si>
 </sst>
 </file>
@@ -447,18 +441,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -552,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -571,9 +559,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,6 +585,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -965,44 +954,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="13">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1030,16 +1022,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1056,7 +1048,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,40 +1059,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="A2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="14"/>
+      <c r="A5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13">
         <v>-44019.21</v>
       </c>
     </row>
@@ -1118,115 +1110,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="14">
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="13">
         <v>13642.12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13">
         <v>-893073.51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="14"/>
+      <c r="A5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>23</v>
+      <c r="A6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="14"/>
+      <c r="A9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="14"/>
+      <c r="A10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>29</v>
+      <c r="A11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
+      <c r="A12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1259,23 +1241,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>33</v>
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1287,155 +1269,155 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="21">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="22">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="G4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="15"/>
-      <c r="D8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>50</v>
+      <c r="B8" s="14"/>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="D9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>52</v>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>54</v>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
@@ -1443,11 +1425,11 @@
     <row r="12" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>55</v>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -1455,11 +1437,11 @@
     <row r="13" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="D13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>56</v>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
@@ -1468,11 +1450,11 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>57</v>
+      <c r="A15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -1494,11 +1476,11 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>58</v>
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1509,28 +1491,28 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="22"/>
+      <c r="A18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="21"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="20"/>
+      <c r="A19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="19"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
@@ -1642,34 +1624,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>41</v>
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="G2" s="1"/>
@@ -1678,148 +1660,148 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="D3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="G3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="J3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="14"/>
+      <c r="A3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="G3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="J3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="D4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="G4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="J4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="14"/>
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="G4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="J4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>63</v>
+      <c r="A5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>70</v>
+      <c r="A6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>32</v>
+      <c r="A7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>51</v>
+      <c r="A9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="G10" s="1"/>
@@ -1828,148 +1810,148 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="G11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="J11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="D12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="G12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="J12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="D11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="G11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="J11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="J13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="D12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="G12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="J12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>79</v>
+      <c r="D14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>32</v>
+      <c r="A15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>56</v>
+      <c r="A18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="G19" s="1"/>
@@ -1978,148 +1960,148 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="G20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="J20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="14"/>
+      <c r="A20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="D20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="G20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="J20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="D21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="G21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="J21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="14"/>
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="D21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="G21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="J21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>82</v>
+      <c r="A22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>86</v>
+      <c r="A23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>32</v>
+      <c r="A24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>50</v>
+      <c r="B27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="G28" s="1"/>
@@ -2128,125 +2110,125 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="D29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="G29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="J29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="14"/>
+      <c r="A29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="D29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="G29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="J29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="D30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="G30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="J30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K30" s="14"/>
+      <c r="A30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="D30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="G30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="J30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>82</v>
+      <c r="A31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>90</v>
+      <c r="A32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>33</v>
+      <c r="A33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>52</v>
+      <c r="A36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -2261,8 +2243,8 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2276,10 +2258,10 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="14"/>
+      <c r="A38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="13"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2293,10 +2275,10 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="14"/>
+      <c r="A39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="13"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2310,11 +2292,11 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>82</v>
+      <c r="A40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -2329,39 +2311,39 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>91</v>
+      <c r="A41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="21"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="5"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="21"/>
+      <c r="K41" s="20"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>33</v>
+      <c r="A42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="21"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="5"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="21"/>
+      <c r="K42" s="20"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -2510,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:J48"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2528,23 +2510,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>69</v>
+      <c r="A1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,112 +2534,112 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>97</v>
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="D4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="G4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="A4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="G4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>100</v>
+      <c r="A5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="D6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="G6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="A6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="D6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="G6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>31</v>
+      <c r="A7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>77</v>
+      <c r="A9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2667,112 +2649,112 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>106</v>
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="D12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="G12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="14"/>
+      <c r="A12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="D12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="G12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>100</v>
+      <c r="A13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="D14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="G14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="14"/>
+      <c r="A14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="G14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>32</v>
+      <c r="A15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>83</v>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2782,112 +2764,112 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>109</v>
+      <c r="A19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="G20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="14"/>
+      <c r="A20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="D20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="G20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>100</v>
+      <c r="A21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="D22" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="G22" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="14"/>
+      <c r="A22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="D22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="G22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>32</v>
+      <c r="A23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>86</v>
+      <c r="A25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,111 +2879,111 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>112</v>
+      <c r="A27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="D28" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="G28" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="14"/>
+      <c r="A28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="D28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="G28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>100</v>
+      <c r="A29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="D30" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="G30" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="14"/>
+      <c r="A30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="D30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="G30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>32</v>
+      <c r="A31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>89</v>
+      <c r="A33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3011,105 +2993,105 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>115</v>
+      <c r="A35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="D36" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="G36" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="14"/>
+      <c r="A36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="G36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>100</v>
+      <c r="A37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="D38" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="G38" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="14"/>
+      <c r="A38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="G38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>33</v>
+      <c r="A39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>91</v>
+      <c r="A41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="5"/>
@@ -3121,54 +3103,54 @@
       <c r="D42" s="3"/>
       <c r="E42" s="8"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="17"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>117</v>
+      <c r="A43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="17"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="D44" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="14"/>
+      <c r="A44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="D44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="13"/>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>100</v>
+      <c r="A45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="5"/>
@@ -3176,31 +3158,31 @@
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="D46" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="14"/>
+      <c r="A46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="D46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="13"/>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>33</v>
+      <c r="A47" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5"/>
@@ -3209,7 +3191,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G48" s="5"/>
-      <c r="H48" s="17"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
@@ -3258,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3279,76 +3261,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>120</v>
+      <c r="A1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>125</v>
+      <c r="A3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="26">
+      <c r="A4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="25">
         <v>5000</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="25">
         <v>1309103.26</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="G4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="25">
         <v>486784.95</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>121</v>
+      <c r="A7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="9"/>
@@ -3359,14 +3341,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>126</v>
+      <c r="A9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="9"/>
@@ -3376,10 +3358,10 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="26">
+      <c r="A10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="25">
         <v>-193437.45</v>
       </c>
       <c r="D10" s="1"/>
@@ -3390,8 +3372,8 @@
       <c r="K10" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
